--- a/file/SLO-3181-OttawaHouse.xlsx
+++ b/file/SLO-3181-OttawaHouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.6_SmartLife/SmartLife-Ottawa/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71153BBE-FF5C-704B-ACD2-8383A03AE17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55258F1C-7281-2D4C-AA48-13FF6CCCE6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="8400" windowWidth="39240" windowHeight="9760" xr2:uid="{4DC61C82-3A98-8C44-9518-869C1826B292}"/>
+    <workbookView xWindow="4780" yWindow="4560" windowWidth="39240" windowHeight="9760" xr2:uid="{4DC61C82-3A98-8C44-9518-869C1826B292}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41 rue Joffre Gatinea, Outaouais</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>154 CH. FRASER, APP.A, AYLMER, J9H 0G9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/SLO-3111-Aylmer-06.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>134 Ch. Fraser, Gatineau, Quebec J9H 0G8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.point2homes.com/CA/Condo-For-Sale/QC/Gatineau/Wychwood/134-Ch-Fraser/95158946.html</t>
   </si>
   <si>
@@ -257,6 +245,30 @@
   </si>
   <si>
     <t>website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154 Ch. Fraser, App.A, Aylmer, J9H0G9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134 Ch. Fraser, Gatineau, Quebec J9H0G8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">41 Rue Joffre Gatinea, Outaouais, Quebec </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gatineau-House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gatineau-Condo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,120 +658,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D3155E-4704-924E-AC25-9F37DE0EB861}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="53.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="8" width="10.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="16.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
-    <col min="13" max="13" width="20.83203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="36.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="53.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36.33203125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="17">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1">
         <v>15200695</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>399900</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
         <v>3272</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>2017</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -767,43 +786,49 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>374900</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="5">
+        <v>1500.25</v>
+      </c>
+      <c r="L3" s="5">
         <v>2808.35</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>2012</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -811,40 +836,46 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>339900</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>1100</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
+        <v>4007.49</v>
+      </c>
+      <c r="M4" s="3">
         <v>2000</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -852,171 +883,192 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>389900</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1150</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4590</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2003</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1150</v>
-      </c>
-      <c r="K5" s="5">
-        <v>4590</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2003</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>349800</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2">
-        <v>349800</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1478</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2583</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2018</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2583</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2018</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>249900</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1969</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2">
-        <v>249900</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1200</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2012</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>249900</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1122.5999999999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2265.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2">
-        <v>249000</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="P8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="O9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1122.5999999999999</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2014</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="N9" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/file/SLO-3181-OttawaHouse.xlsx
+++ b/file/SLO-3181-OttawaHouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.6_SmartLife/SmartLife-Ottawa/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55258F1C-7281-2D4C-AA48-13FF6CCCE6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1DEA6-6567-1546-8EAF-D29FA1F876A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="4560" windowWidth="39240" windowHeight="9760" xr2:uid="{4DC61C82-3A98-8C44-9518-869C1826B292}"/>
+    <workbookView xWindow="7760" yWindow="4440" windowWidth="39240" windowHeight="9760" xr2:uid="{4DC61C82-3A98-8C44-9518-869C1826B292}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,33 @@
   </si>
   <si>
     <t>Gatineau-Condo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-300 boulevard d'Europe Gatineau, Quebec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://neuves.duproprio.com/en/outaouais/gatineau-aylmer/condo-for-sale/hab-4-300-boulevard-deurope-928035#description</t>
+  </si>
+  <si>
+    <t>fig/SLO-3111-Aylmer-08.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,80 +681,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D3155E-4704-924E-AC25-9F37DE0EB861}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="53.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="16.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="3"/>
-    <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="36.33203125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="53.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="10" width="10.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="20.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="36.33203125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,46 +765,49 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>15200695</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2">
         <v>399900</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5">
         <v>3272</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>2017</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,49 +815,49 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>374900</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
         <v>1500.25</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>2808.35</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>2012</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -836,46 +865,46 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>339900</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>1100</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>4007.49</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>2000</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -883,46 +912,46 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>389900</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
+      <c r="G5" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>1150</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>4590</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>2003</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -930,49 +959,49 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>349800</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
         <v>1478</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>2583</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>2018</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -980,46 +1009,46 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>249900</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>1200</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>1969</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>2012</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1027,48 +1056,87 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>249900</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>1122.5999999999999</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>2265.1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2014</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="O9" s="3" t="s">
-        <v>40</v>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2">
+        <v>279900</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1212</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2009</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
